--- a/Codigo/Bases/Datos_vitales.xlsx
+++ b/Codigo/Bases/Datos_vitales.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inegobgt-my.sharepoint.com/personal/pgalvez_ine_gob_gt/Documents/Documentos/GitHub/CompendioGenero2023/Codigo/Bases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pgalvez\OneDrive - ine.gob.gt\Documentos\GitHub\CompendioGenero2023\Codigo\Bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{37235C18-CDDC-45F2-A8F0-1130E34CFDAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA90BE09-A418-429F-BB81-1993D7A5CD89}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A6352F-0EAF-433B-A574-A281C9C9A73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D2BB167B-F789-448D-B613-2ADDCE34B867}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{D2BB167B-F789-448D-B613-2ADDCE34B867}"/>
   </bookViews>
   <sheets>
     <sheet name="ESPERANZA_DE_VIDA" sheetId="1" r:id="rId1"/>
@@ -546,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9757D02B-745D-4892-952F-7D54EF4A20A1}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,34 +565,34 @@
     </row>
     <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B2">
-        <v>2.2590982420114374</v>
+        <v>2.6274662569767253</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B3">
-        <v>2.264749087639204</v>
+        <v>2.4730508843432637</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4">
-        <v>2.4730508843432637</v>
+        <v>2.264749087639204</v>
       </c>
     </row>
     <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="B5">
-        <v>2.6274662569767253</v>
+        <v>2.2590982420114374</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
@@ -746,6 +746,9 @@
       <c r="D37" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B37">
+    <sortCondition ref="A1:A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -753,10 +756,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBC89105-3F76-4A4C-8926-ED8AFE204C2B}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +767,7 @@
     <col min="1" max="2" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -772,75 +775,77 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2">
+        <v>60.130478491058042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3">
+        <v>56.526349874524406</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2020</v>
+      </c>
+      <c r="B4">
+        <v>50.543157166312504</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>2021</v>
       </c>
-      <c r="B2">
+      <c r="B5">
         <v>51.408005687316098</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2020</v>
-      </c>
-      <c r="B3">
-        <v>50.543157166312504</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2018</v>
-      </c>
-      <c r="B4">
-        <v>56.526349874524406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2018</v>
-      </c>
-      <c r="B5">
-        <v>60.130478491058042</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G5"/>
+      <c r="H5"/>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
     </row>
-    <row r="14" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
     </row>
@@ -955,6 +960,9 @@
       <c r="D37" s="5"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B37">
+    <sortCondition ref="A1:A37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>